--- a/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-op-03-04)商品管理_検索・参照.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-op-03-04)商品管理_検索・参照.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ミクラス工房\03.夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A395F248-4843-401D-9101-AE48E7093004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387DBE68-822C-46D3-AA8B-7945EE11D082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="690" windowWidth="25050" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="840" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -208,6 +209,23 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務フロー図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：商品在庫リストを追加</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,6 +654,286 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 磁気ディスク 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78644DBA-9DF2-4904-8F81-E147C066B0B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="7458075"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="フローチャート: 磁気ディスク 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5FA537-05DA-4394-A446-E37C2974F85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="4371975"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -664,7 +962,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5278"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5285"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3642,6 +3940,306 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="吹き出し: 折線 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF64ADA-C950-4F8F-9676-A0E66ADD4D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="4829175"/>
+          <a:ext cx="2933700" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90902"/>
+            <a:gd name="adj2" fmla="val -2434"/>
+            <a:gd name="adj3" fmla="val 74092"/>
+            <a:gd name="adj4" fmla="val -6843"/>
+            <a:gd name="adj5" fmla="val 7482"/>
+            <a:gd name="adj6" fmla="val -14568"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>フェーズ２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)(2020/4/8)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索対象のテーブルに、商品在庫リストを追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="吹き出し: 折線 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C79848-D1DE-4B28-9CF5-D22ABC6E2580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="7915275"/>
+          <a:ext cx="2933700" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90902"/>
+            <a:gd name="adj2" fmla="val -2434"/>
+            <a:gd name="adj3" fmla="val 74092"/>
+            <a:gd name="adj4" fmla="val -6843"/>
+            <a:gd name="adj5" fmla="val 7482"/>
+            <a:gd name="adj6" fmla="val -14568"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>フェーズ２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)(2020/4/8)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索対象のテーブルに、商品在庫リストを追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3974,7 +4572,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -4028,9 +4626,15 @@
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="9">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8">
@@ -4463,7 +5067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
